--- a/Code/Results/Cases/Case_9_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9954181618136495</v>
+        <v>0.9960841046597178</v>
       </c>
       <c r="D2">
-        <v>1.018340307949592</v>
+        <v>1.018577419558673</v>
       </c>
       <c r="E2">
-        <v>1.002282456486989</v>
+        <v>1.002923139807934</v>
       </c>
       <c r="F2">
-        <v>1.014637404906294</v>
+        <v>1.01492589387618</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045824073637639</v>
+        <v>1.045944431304672</v>
       </c>
       <c r="J2">
-        <v>1.017736783875738</v>
+        <v>1.018382573662417</v>
       </c>
       <c r="K2">
-        <v>1.029549912071091</v>
+        <v>1.029783868983332</v>
       </c>
       <c r="L2">
-        <v>1.013710084390264</v>
+        <v>1.014341900319001</v>
       </c>
       <c r="M2">
-        <v>1.025896515406623</v>
+        <v>1.026181131086388</v>
       </c>
       <c r="N2">
-        <v>1.00931227927616</v>
+        <v>1.011774980642411</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029067653016825</v>
+        <v>1.029292910856279</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031964515955236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032138796810557</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019957170049406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000440333496362</v>
+        <v>1.000745160790731</v>
       </c>
       <c r="D3">
-        <v>1.02181789091703</v>
+        <v>1.021665596106013</v>
       </c>
       <c r="E3">
-        <v>1.00634505231533</v>
+        <v>1.0066630309577</v>
       </c>
       <c r="F3">
-        <v>1.018220714931142</v>
+        <v>1.01835258933923</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047093121290878</v>
+        <v>1.047015732548127</v>
       </c>
       <c r="J3">
-        <v>1.020919001770139</v>
+        <v>1.021215532563616</v>
       </c>
       <c r="K3">
-        <v>1.032179015828105</v>
+        <v>1.032028567964187</v>
       </c>
       <c r="L3">
-        <v>1.016897385687579</v>
+        <v>1.017211361071366</v>
       </c>
       <c r="M3">
-        <v>1.028625647897565</v>
+        <v>1.028755909484104</v>
       </c>
       <c r="N3">
-        <v>1.010436606067787</v>
+        <v>1.012560060950361</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031227610019652</v>
+        <v>1.031330704672942</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033820870222797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033723052729063</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020458493239919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003613443711521</v>
+        <v>1.003693759063449</v>
       </c>
       <c r="D4">
-        <v>1.024015890813665</v>
+        <v>1.023619912896348</v>
       </c>
       <c r="E4">
-        <v>1.008917683233394</v>
+        <v>1.009034821273221</v>
       </c>
       <c r="F4">
-        <v>1.020495801350926</v>
+        <v>1.020530517434717</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047879193567036</v>
+        <v>1.047677834031189</v>
       </c>
       <c r="J4">
-        <v>1.02292516671487</v>
+        <v>1.02300344774508</v>
       </c>
       <c r="K4">
-        <v>1.033832854511287</v>
+        <v>1.033441385246924</v>
       </c>
       <c r="L4">
-        <v>1.018909658082892</v>
+        <v>1.019025413355193</v>
       </c>
       <c r="M4">
-        <v>1.030352996675404</v>
+        <v>1.030387314311152</v>
       </c>
       <c r="N4">
-        <v>1.011145081693436</v>
+        <v>1.013055565192807</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032594707310904</v>
+        <v>1.032621867720365</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034991199050563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034723032387468</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020771367471603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004934786325791</v>
+        <v>1.004922016411131</v>
       </c>
       <c r="D5">
-        <v>1.024933147747102</v>
+        <v>1.024436096822079</v>
       </c>
       <c r="E5">
-        <v>1.009991296844457</v>
+        <v>1.010024983656602</v>
       </c>
       <c r="F5">
-        <v>1.021444359502025</v>
+        <v>1.021438841729222</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048204151104312</v>
+        <v>1.047951318692999</v>
       </c>
       <c r="J5">
-        <v>1.023761177134791</v>
+        <v>1.023748720773624</v>
       </c>
       <c r="K5">
-        <v>1.034522386982107</v>
+        <v>1.034030842900932</v>
       </c>
       <c r="L5">
-        <v>1.01974899891032</v>
+        <v>1.019782298999213</v>
       </c>
       <c r="M5">
-        <v>1.031072390451095</v>
+        <v>1.0310669342885</v>
       </c>
       <c r="N5">
-        <v>1.011441745447727</v>
+        <v>1.013263070690068</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033164065354564</v>
+        <v>1.033159747123139</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035485978947476</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035147758554095</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02090204623891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00516170095077</v>
+        <v>1.00513248802316</v>
       </c>
       <c r="D6">
-        <v>1.025092916453006</v>
+        <v>1.024578377972449</v>
       </c>
       <c r="E6">
-        <v>1.010176936282651</v>
+        <v>1.010195707166318</v>
       </c>
       <c r="F6">
-        <v>1.021605670385651</v>
+        <v>1.021593048486454</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048261520596012</v>
+        <v>1.047999779584234</v>
       </c>
       <c r="J6">
-        <v>1.023906762112773</v>
+        <v>1.023878262700788</v>
       </c>
       <c r="K6">
-        <v>1.034643911609152</v>
+        <v>1.034135047243051</v>
       </c>
       <c r="L6">
-        <v>1.019895310770502</v>
+        <v>1.019913867185297</v>
       </c>
       <c r="M6">
-        <v>1.031195259056482</v>
+        <v>1.031182777433041</v>
       </c>
       <c r="N6">
-        <v>1.011495244147308</v>
+        <v>1.013300301211262</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033261308613967</v>
+        <v>1.033251430145284</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035580705228787</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035231106166833</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020926066588974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003647547077422</v>
+        <v>1.003735659256227</v>
       </c>
       <c r="D7">
-        <v>1.024045521120239</v>
+        <v>1.023654669641941</v>
       </c>
       <c r="E7">
-        <v>1.008948637845863</v>
+        <v>1.009072953379365</v>
       </c>
       <c r="F7">
-        <v>1.020515594838504</v>
+        <v>1.020553680892139</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047892378680345</v>
+        <v>1.047693625087794</v>
       </c>
       <c r="J7">
-        <v>1.022952349506456</v>
+        <v>1.023038230920859</v>
       </c>
       <c r="K7">
-        <v>1.033859240576359</v>
+        <v>1.033472837549361</v>
       </c>
       <c r="L7">
-        <v>1.01893728165006</v>
+        <v>1.019060130305105</v>
       </c>
       <c r="M7">
-        <v>1.030369642463035</v>
+        <v>1.030407291559194</v>
       </c>
       <c r="N7">
-        <v>1.011159768619863</v>
+        <v>1.013095640400391</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032607881482216</v>
+        <v>1.032637678547896</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035030097388249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034767510781017</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020782110298207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9971524164822559</v>
+        <v>0.9977268594066756</v>
       </c>
       <c r="D8">
-        <v>1.019548135852688</v>
+        <v>1.019675031533669</v>
       </c>
       <c r="E8">
-        <v>1.003688446715247</v>
+        <v>1.00424910374202</v>
       </c>
       <c r="F8">
-        <v>1.015866617199553</v>
+        <v>1.016115354174615</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046271251888981</v>
+        <v>1.046335687659372</v>
       </c>
       <c r="J8">
-        <v>1.018843544784227</v>
+        <v>1.019401206752868</v>
       </c>
       <c r="K8">
-        <v>1.030469668863426</v>
+        <v>1.030594927407571</v>
       </c>
       <c r="L8">
-        <v>1.014818686378589</v>
+        <v>1.015371824208376</v>
       </c>
       <c r="M8">
-        <v>1.026835870056437</v>
+        <v>1.027081369264486</v>
       </c>
       <c r="N8">
-        <v>1.009710087410083</v>
+        <v>1.012144617224227</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029811100882551</v>
+        <v>1.030005399956646</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032637972262268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032737650422675</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020145875082928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9850600056039508</v>
+        <v>0.9865353407594681</v>
       </c>
       <c r="D9">
-        <v>1.011175795483144</v>
+        <v>1.012260234588386</v>
       </c>
       <c r="E9">
-        <v>0.9939386667357909</v>
+        <v>0.9953037841689785</v>
       </c>
       <c r="F9">
-        <v>1.007311109000521</v>
+        <v>1.007951964321008</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043122663214516</v>
+        <v>1.043671962870512</v>
       </c>
       <c r="J9">
-        <v>1.011151593013638</v>
+        <v>1.012572697643733</v>
       </c>
       <c r="K9">
-        <v>1.024090118575785</v>
+        <v>1.025157481181515</v>
       </c>
       <c r="L9">
-        <v>1.007130856351798</v>
+        <v>1.00847351650697</v>
       </c>
       <c r="M9">
-        <v>1.020286671870368</v>
+        <v>1.020917330592013</v>
       </c>
       <c r="N9">
-        <v>1.006985049389424</v>
+        <v>1.010259785132298</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024627751734663</v>
+        <v>1.02512688696261</v>
       </c>
       <c r="Q9">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R9">
-        <v>1.028123893889735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028889473254514</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018914279325575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9767125619445225</v>
+        <v>0.9788768281801974</v>
       </c>
       <c r="D10">
-        <v>1.005414696144373</v>
+        <v>1.007206677009902</v>
       </c>
       <c r="E10">
-        <v>0.9872691459864603</v>
+        <v>0.9892478438230673</v>
       </c>
       <c r="F10">
-        <v>1.001707719383488</v>
+        <v>1.002648865574451</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040889741579701</v>
+        <v>1.041795961574316</v>
       </c>
       <c r="J10">
-        <v>1.00588158772279</v>
+        <v>1.007954329725018</v>
       </c>
       <c r="K10">
-        <v>1.01968686998224</v>
+        <v>1.021447020477386</v>
       </c>
       <c r="L10">
-        <v>1.001872128331455</v>
+        <v>1.003813983930702</v>
       </c>
       <c r="M10">
-        <v>1.016046208733133</v>
+        <v>1.016970458070251</v>
       </c>
       <c r="N10">
-        <v>1.005141940147458</v>
+        <v>1.009118685940119</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.021324156918173</v>
+        <v>1.022055610545915</v>
       </c>
       <c r="Q10">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R10">
-        <v>1.025027459176517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02628459216673</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018076943168414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9744100140637774</v>
+        <v>0.9767631248455594</v>
       </c>
       <c r="D11">
-        <v>1.003872469237103</v>
+        <v>1.005867768610898</v>
       </c>
       <c r="E11">
-        <v>0.9856300770509068</v>
+        <v>0.9877564138037358</v>
       </c>
       <c r="F11">
-        <v>1.002064010563332</v>
+        <v>1.003079340042113</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040394079290873</v>
+        <v>1.041402460442702</v>
       </c>
       <c r="J11">
-        <v>1.004887524205973</v>
+        <v>1.007135586878259</v>
       </c>
       <c r="K11">
-        <v>1.018721724107367</v>
+        <v>1.020679869343617</v>
       </c>
       <c r="L11">
-        <v>1.000828174244329</v>
+        <v>1.002912979817947</v>
       </c>
       <c r="M11">
-        <v>1.016947107357066</v>
+        <v>1.017943417231775</v>
       </c>
       <c r="N11">
-        <v>1.004994603513031</v>
+        <v>1.009253671426143</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.022481546053757</v>
+        <v>1.023269616185184</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.024378353455724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.025778671571088</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01799163669378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9740168440626106</v>
+        <v>0.9763792541551187</v>
       </c>
       <c r="D12">
-        <v>1.003627822749693</v>
+        <v>1.005647125321676</v>
       </c>
       <c r="E12">
-        <v>0.9854587061077781</v>
+        <v>0.9875750640246899</v>
       </c>
       <c r="F12">
-        <v>1.003139679062056</v>
+        <v>1.004153199835744</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040374115713717</v>
+        <v>1.041394396416784</v>
       </c>
       <c r="J12">
-        <v>1.004963070180884</v>
+        <v>1.007218055166666</v>
       </c>
       <c r="K12">
-        <v>1.018685847888309</v>
+        <v>1.02066692917962</v>
       </c>
       <c r="L12">
-        <v>1.000869899478241</v>
+        <v>1.002944241396841</v>
       </c>
       <c r="M12">
-        <v>1.018206973967434</v>
+        <v>1.019201261316041</v>
       </c>
       <c r="N12">
-        <v>1.005172162786099</v>
+        <v>1.009469892493549</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.023809625689369</v>
+        <v>1.024595821394296</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02435298712042</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.025769522438219</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018045930045003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9750829937581814</v>
+        <v>0.9772990070755925</v>
       </c>
       <c r="D13">
-        <v>1.004382745266561</v>
+        <v>1.006277062172978</v>
       </c>
       <c r="E13">
-        <v>0.9864193526260053</v>
+        <v>0.9883874075033504</v>
       </c>
       <c r="F13">
-        <v>1.004867134803205</v>
+        <v>1.00581351873677</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040733406741919</v>
+        <v>1.041690611558193</v>
       </c>
       <c r="J13">
-        <v>1.005884012608736</v>
+        <v>1.007999921561517</v>
       </c>
       <c r="K13">
-        <v>1.019382704271363</v>
+        <v>1.021241350257383</v>
       </c>
       <c r="L13">
-        <v>1.001766518838324</v>
+        <v>1.003695725626535</v>
       </c>
       <c r="M13">
-        <v>1.019857955793327</v>
+        <v>1.020786519354221</v>
       </c>
       <c r="N13">
-        <v>1.005624113805537</v>
+        <v>1.009733201091138</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.025395287380136</v>
+        <v>1.026129325740152</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.024843172997686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026172889959426</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018217640651929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9764696997134745</v>
+        <v>0.9785182832444033</v>
       </c>
       <c r="D14">
-        <v>1.005350664955194</v>
+        <v>1.007094562521034</v>
       </c>
       <c r="E14">
-        <v>0.9875863304613922</v>
+        <v>0.9893939993368256</v>
       </c>
       <c r="F14">
-        <v>1.006338839100386</v>
+        <v>1.007211467245831</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041149711490454</v>
+        <v>1.042031078355916</v>
       </c>
       <c r="J14">
-        <v>1.00689232759233</v>
+        <v>1.008849837080104</v>
       </c>
       <c r="K14">
-        <v>1.020189213536322</v>
+        <v>1.021900709632813</v>
       </c>
       <c r="L14">
-        <v>1.002763491726398</v>
+        <v>1.004535975406281</v>
       </c>
       <c r="M14">
-        <v>1.021159009505916</v>
+        <v>1.02201544751034</v>
       </c>
       <c r="N14">
-        <v>1.006057320133132</v>
+        <v>1.009937122895081</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026598890722629</v>
+        <v>1.027275820511659</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025414860564384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.02664066084266</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018389242669633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9771453041342379</v>
+        <v>0.9791180610296604</v>
       </c>
       <c r="D15">
-        <v>1.005820418458734</v>
+        <v>1.007494002705956</v>
       </c>
       <c r="E15">
-        <v>0.9881365551292726</v>
+        <v>0.9898742046525254</v>
       </c>
       <c r="F15">
-        <v>1.006892233337663</v>
+        <v>1.007732119573476</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041342045554694</v>
+        <v>1.042187971797627</v>
       </c>
       <c r="J15">
-        <v>1.00734371721827</v>
+        <v>1.009229592662148</v>
       </c>
       <c r="K15">
-        <v>1.020562076372958</v>
+        <v>1.022204813387844</v>
       </c>
       <c r="L15">
-        <v>1.003212527304479</v>
+        <v>1.004916633352099</v>
       </c>
       <c r="M15">
-        <v>1.021614120349443</v>
+        <v>1.022438552170539</v>
       </c>
       <c r="N15">
-        <v>1.00623270734208</v>
+        <v>1.010007683185538</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.026996490395744</v>
+        <v>1.027648105198972</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025684441721498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.02686218693308</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018462393928611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.980454265347855</v>
+        <v>0.9820919174994509</v>
       </c>
       <c r="D16">
-        <v>1.008102262803875</v>
+        <v>1.009450033418029</v>
       </c>
       <c r="E16">
-        <v>0.9907489384538771</v>
+        <v>0.992190484247884</v>
       </c>
       <c r="F16">
-        <v>1.008962656077896</v>
+        <v>1.009660140701025</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042229846996384</v>
+        <v>1.04291152607294</v>
       </c>
       <c r="J16">
-        <v>1.00938607529242</v>
+        <v>1.010955390667609</v>
       </c>
       <c r="K16">
-        <v>1.022290500696859</v>
+        <v>1.023614552581924</v>
       </c>
       <c r="L16">
-        <v>1.005250081441005</v>
+        <v>1.006665091083993</v>
       </c>
       <c r="M16">
-        <v>1.023135742867067</v>
+        <v>1.023820969687339</v>
       </c>
       <c r="N16">
-        <v>1.006920780749151</v>
+        <v>1.010250285616717</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028160091196747</v>
+        <v>1.028701696964093</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.0269097278897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027862431187194</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018772021980548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9822799184978729</v>
+        <v>0.9837579613924632</v>
       </c>
       <c r="D17">
-        <v>1.009355956357903</v>
+        <v>1.010539035973258</v>
       </c>
       <c r="E17">
-        <v>0.9921561618394927</v>
+        <v>0.9934624781301673</v>
       </c>
       <c r="F17">
-        <v>1.009789071967506</v>
+        <v>1.010419597707518</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042694149326919</v>
+        <v>1.043292769058208</v>
       </c>
       <c r="J17">
-        <v>1.010436506951126</v>
+        <v>1.011854930379162</v>
       </c>
       <c r="K17">
-        <v>1.023201906574252</v>
+        <v>1.024364767069346</v>
       </c>
       <c r="L17">
-        <v>1.006303134078234</v>
+        <v>1.007586113051351</v>
       </c>
       <c r="M17">
-        <v>1.023627613029541</v>
+        <v>1.024247367257214</v>
       </c>
       <c r="N17">
-        <v>1.007226751032128</v>
+        <v>1.010362759104209</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028418579827342</v>
+        <v>1.028908485398677</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027556753917654</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028395726663728</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018922645561333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9829338848623556</v>
+        <v>0.9843815186840985</v>
       </c>
       <c r="D18">
-        <v>1.009789224882231</v>
+        <v>1.010927659037077</v>
       </c>
       <c r="E18">
-        <v>0.9925904597568319</v>
+        <v>0.9938816876812658</v>
       </c>
       <c r="F18">
-        <v>1.009439888160637</v>
+        <v>1.010059526089014</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042813149078737</v>
+        <v>1.043389306875251</v>
       </c>
       <c r="J18">
-        <v>1.01065750313789</v>
+        <v>1.01204784152644</v>
       </c>
       <c r="K18">
-        <v>1.023441096201362</v>
+        <v>1.024560395623674</v>
       </c>
       <c r="L18">
-        <v>1.006538329081681</v>
+        <v>1.007806873561613</v>
       </c>
       <c r="M18">
-        <v>1.023097642271947</v>
+        <v>1.023706849166333</v>
       </c>
       <c r="N18">
-        <v>1.007196948847274</v>
+        <v>1.010309101222564</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027759214107272</v>
+        <v>1.028240884541268</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027714099303974</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028521143007729</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018930894553719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9824875191589915</v>
+        <v>0.9840191663480372</v>
       </c>
       <c r="D19">
-        <v>1.009458860234826</v>
+        <v>1.010662232955691</v>
       </c>
       <c r="E19">
-        <v>0.9921119385460517</v>
+        <v>0.9934938193838992</v>
       </c>
       <c r="F19">
-        <v>1.007912061197094</v>
+        <v>1.00857111757177</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042611563220194</v>
+        <v>1.043220621486943</v>
       </c>
       <c r="J19">
-        <v>1.010090248140967</v>
+        <v>1.011561560751201</v>
       </c>
       <c r="K19">
-        <v>1.023052616169813</v>
+        <v>1.024235855649289</v>
       </c>
       <c r="L19">
-        <v>1.006002950735925</v>
+        <v>1.007360658903604</v>
       </c>
       <c r="M19">
-        <v>1.021531787187655</v>
+        <v>1.022179765746739</v>
       </c>
       <c r="N19">
-        <v>1.006861170883414</v>
+        <v>1.010082147859768</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.02619100517835</v>
+        <v>1.026703502344483</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027445897203272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028298774094814</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018806278361912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9789342619833272</v>
+        <v>0.9808744121504019</v>
       </c>
       <c r="D20">
-        <v>1.006960370481023</v>
+        <v>1.008537085196606</v>
       </c>
       <c r="E20">
-        <v>0.9890526359040882</v>
+        <v>0.9908273745934556</v>
       </c>
       <c r="F20">
-        <v>1.003194631579571</v>
+        <v>1.004038048099172</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041500502349425</v>
+        <v>1.042298190970897</v>
       </c>
       <c r="J20">
-        <v>1.007302099989478</v>
+        <v>1.009163035257006</v>
       </c>
       <c r="K20">
-        <v>1.020881924436884</v>
+        <v>1.022431463112457</v>
       </c>
       <c r="L20">
-        <v>1.003290752207163</v>
+        <v>1.005033454199963</v>
       </c>
       <c r="M20">
-        <v>1.017181538880255</v>
+        <v>1.018010262989556</v>
       </c>
       <c r="N20">
-        <v>1.005655517518544</v>
+        <v>1.009354613180384</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.022211899077403</v>
+        <v>1.022867761709758</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.025915085855473</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027027359840355</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018303834313115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.972338712955142</v>
+        <v>0.9750148811726437</v>
       </c>
       <c r="D21">
-        <v>1.002402943960349</v>
+        <v>1.004672142944863</v>
       </c>
       <c r="E21">
-        <v>0.9837595482818451</v>
+        <v>0.9862078044540423</v>
       </c>
       <c r="F21">
-        <v>0.9984203367204951</v>
+        <v>0.9995865154154501</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039681642837792</v>
+        <v>1.040828304599041</v>
       </c>
       <c r="J21">
-        <v>1.003040260095157</v>
+        <v>1.005595679343538</v>
       </c>
       <c r="K21">
-        <v>1.017338934390633</v>
+        <v>1.019565537496649</v>
       </c>
       <c r="L21">
-        <v>0.9990552745349487</v>
+        <v>1.001455271683829</v>
       </c>
       <c r="M21">
-        <v>1.013431698234997</v>
+        <v>1.014575725625743</v>
       </c>
       <c r="N21">
-        <v>1.004126046114018</v>
+        <v>1.008804396608259</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.019202354907935</v>
+        <v>1.020107803096881</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.023413291233142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025004637636214</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017653732165837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9681448871833978</v>
+        <v>0.9712937316940646</v>
       </c>
       <c r="D22">
-        <v>0.999507003705813</v>
+        <v>1.002219170653397</v>
       </c>
       <c r="E22">
-        <v>0.9804101308503552</v>
+        <v>0.983291023660663</v>
       </c>
       <c r="F22">
-        <v>0.9955244453251809</v>
+        <v>0.9968979715083851</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038514130095056</v>
+        <v>1.039883609083152</v>
       </c>
       <c r="J22">
-        <v>1.000349820168286</v>
+        <v>1.003347702326595</v>
       </c>
       <c r="K22">
-        <v>1.015088233279438</v>
+        <v>1.017746793156514</v>
       </c>
       <c r="L22">
-        <v>0.9963799188163799</v>
+        <v>0.9992009182536772</v>
       </c>
       <c r="M22">
-        <v>1.011185088285498</v>
+        <v>1.01253113168058</v>
       </c>
       <c r="N22">
-        <v>1.003164856052173</v>
+        <v>1.008458133947491</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.01742425673697</v>
+        <v>1.018489594573445</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.021808192205669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.023703692381314</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017241645996056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9703633260694594</v>
+        <v>0.9732434472613235</v>
       </c>
       <c r="D23">
-        <v>1.001033874056783</v>
+        <v>1.003497767828687</v>
       </c>
       <c r="E23">
-        <v>0.9821770365900963</v>
+        <v>0.9848112066069002</v>
       </c>
       <c r="F23">
-        <v>0.9970588833662558</v>
+        <v>0.9983145265193417</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.03912965006491</v>
+        <v>1.040374256641554</v>
       </c>
       <c r="J23">
-        <v>1.001768180147779</v>
+        <v>1.004514558884863</v>
       </c>
       <c r="K23">
-        <v>1.016272540156073</v>
+        <v>1.018689037194971</v>
       </c>
       <c r="L23">
-        <v>0.9977888190102605</v>
+        <v>1.0003697368751</v>
       </c>
       <c r="M23">
-        <v>1.012374662127942</v>
+        <v>1.013605859491361</v>
       </c>
       <c r="N23">
-        <v>1.003665653870117</v>
+        <v>1.008588128574065</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.018365755463186</v>
+        <v>1.019340196087399</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.022635778418546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.024359183906997</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017450506307299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9788780345563693</v>
+        <v>0.9808329604117022</v>
       </c>
       <c r="D24">
-        <v>1.006910217905723</v>
+        <v>1.008497172726613</v>
       </c>
       <c r="E24">
-        <v>0.9889839839281718</v>
+        <v>0.9907750765197175</v>
       </c>
       <c r="F24">
-        <v>1.002974846506829</v>
+        <v>1.003825360082594</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04146682374061</v>
+        <v>1.042269705184139</v>
       </c>
       <c r="J24">
-        <v>1.007214120983159</v>
+        <v>1.009089330114757</v>
       </c>
       <c r="K24">
-        <v>1.020817059452913</v>
+        <v>1.02237669376889</v>
       </c>
       <c r="L24">
-        <v>1.003207354924833</v>
+        <v>1.004966152294462</v>
       </c>
       <c r="M24">
-        <v>1.016949921136728</v>
+        <v>1.017785629497139</v>
       </c>
       <c r="N24">
-        <v>1.005597923894632</v>
+        <v>1.009314388654283</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.021986872227201</v>
+        <v>1.022648296615959</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.025841445880128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.026958208071285</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018279603400325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9882916476666261</v>
+        <v>0.9895046707600096</v>
       </c>
       <c r="D25">
-        <v>1.013420157527235</v>
+        <v>1.014234769557813</v>
       </c>
       <c r="E25">
-        <v>0.9965440946425531</v>
+        <v>0.9976733118680904</v>
       </c>
       <c r="F25">
-        <v>1.009578979914362</v>
+        <v>1.010105457147596</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043984762267224</v>
+        <v>1.044397649315296</v>
       </c>
       <c r="J25">
-        <v>1.013219572980011</v>
+        <v>1.014390481598077</v>
       </c>
       <c r="K25">
-        <v>1.025813654614548</v>
+        <v>1.026616056059303</v>
       </c>
       <c r="L25">
-        <v>1.009196297037776</v>
+        <v>1.010307854369576</v>
       </c>
       <c r="M25">
-        <v>1.022030392436405</v>
+        <v>1.022548898514069</v>
       </c>
       <c r="N25">
-        <v>1.007727032537708</v>
+        <v>1.010734693655457</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026007819542801</v>
+        <v>1.026418190689155</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029371473628155</v>
+        <v>1.029952482757966</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019249761496722</v>
       </c>
     </row>
   </sheetData>
